--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02097901317095116</v>
+        <v>-0.02843597334849807</v>
       </c>
       <c r="C2">
-        <v>0.5389318076024219</v>
+        <v>0.5120978290967556</v>
       </c>
       <c r="D2">
-        <v>0.6880253701288398</v>
+        <v>0.6508982077648369</v>
       </c>
       <c r="E2">
-        <v>0.8294729471952896</v>
+        <v>0.8067826273320694</v>
       </c>
       <c r="F2">
-        <v>0.8532475856270915</v>
+        <v>0.8283753329562445</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05582990142133006</v>
+        <v>-0.05889918563118277</v>
       </c>
       <c r="C3">
-        <v>0.5704633337066201</v>
+        <v>0.5375210360923134</v>
       </c>
       <c r="D3">
-        <v>0.6589226134909927</v>
+        <v>0.6208141610631079</v>
       </c>
       <c r="E3">
-        <v>0.811740484077881</v>
+        <v>0.7879176105806418</v>
       </c>
       <c r="F3">
-        <v>0.8347415694831362</v>
+        <v>0.8084920911945981</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08922879730327848</v>
+        <v>0.07850679787661623</v>
       </c>
       <c r="C4">
-        <v>0.4488123647408881</v>
+        <v>0.4200275287208594</v>
       </c>
       <c r="D4">
-        <v>0.286641086006695</v>
+        <v>0.2679724280602394</v>
       </c>
       <c r="E4">
-        <v>0.5353887242057821</v>
+        <v>0.5176605336127522</v>
       </c>
       <c r="F4">
-        <v>0.5452136537674069</v>
+        <v>0.5274203069366139</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1014832017648946</v>
+        <v>0.09045959314081749</v>
       </c>
       <c r="C5">
-        <v>0.4609078475706581</v>
+        <v>0.4284335755769144</v>
       </c>
       <c r="D5">
-        <v>0.3377362605611711</v>
+        <v>0.3144213805930146</v>
       </c>
       <c r="E5">
-        <v>0.5811508070726316</v>
+        <v>0.560732895943349</v>
       </c>
       <c r="F5">
-        <v>0.5923055018202028</v>
+        <v>0.571536821889252</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1456002320474574</v>
+        <v>0.1328729943200521</v>
       </c>
       <c r="C6">
-        <v>0.4365173745810213</v>
+        <v>0.4043956606847117</v>
       </c>
       <c r="D6">
-        <v>0.2920826736474859</v>
+        <v>0.2696880151153669</v>
       </c>
       <c r="E6">
-        <v>0.5404467352547204</v>
+        <v>0.5193149479028761</v>
       </c>
       <c r="F6">
-        <v>0.5401114874266505</v>
+        <v>0.5196490393550559</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2021585471102545</v>
+        <v>0.1892581571789815</v>
       </c>
       <c r="C7">
-        <v>0.3623957098635581</v>
+        <v>0.3380498083070491</v>
       </c>
       <c r="D7">
-        <v>0.2602155750531629</v>
+        <v>0.2385894900054021</v>
       </c>
       <c r="E7">
-        <v>0.5101132962912875</v>
+        <v>0.4884562314121933</v>
       </c>
       <c r="F7">
-        <v>0.4874694400237346</v>
+        <v>0.4672992583619074</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2205123958406583</v>
+        <v>0.2086948502624945</v>
       </c>
       <c r="C8">
-        <v>0.3218136241415894</v>
+        <v>0.3022036763864308</v>
       </c>
       <c r="D8">
-        <v>0.2138063585195885</v>
+        <v>0.1923865449580635</v>
       </c>
       <c r="E8">
-        <v>0.4623919965998423</v>
+        <v>0.4386189062934513</v>
       </c>
       <c r="F8">
-        <v>0.4244962470765058</v>
+        <v>0.4015417223668171</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2332053775114637</v>
+        <v>0.2394124698171911</v>
       </c>
       <c r="C9">
-        <v>0.2636267009551744</v>
+        <v>0.2672986829739259</v>
       </c>
       <c r="D9">
-        <v>0.1431302289453391</v>
+        <v>0.1375220876090255</v>
       </c>
       <c r="E9">
-        <v>0.3783255594661021</v>
+        <v>0.3708397060847524</v>
       </c>
       <c r="F9">
-        <v>0.3124420409125225</v>
+        <v>0.2957955502247975</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1977035023932478</v>
+        <v>0.195371401722039</v>
       </c>
       <c r="C10">
-        <v>0.2818110596326352</v>
+        <v>0.2718328173942094</v>
       </c>
       <c r="D10">
-        <v>0.1328686983378623</v>
+        <v>0.1201690274152207</v>
       </c>
       <c r="E10">
-        <v>0.3645115887566022</v>
+        <v>0.3466540457216975</v>
       </c>
       <c r="F10">
-        <v>0.3228037303228376</v>
+        <v>0.3003313954364828</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1409295651580426</v>
+        <v>0.1436448583919225</v>
       </c>
       <c r="C11">
-        <v>0.2903575305675629</v>
+        <v>0.2781300272604909</v>
       </c>
       <c r="D11">
-        <v>0.2645727271111006</v>
+        <v>0.2246355840812312</v>
       </c>
       <c r="E11">
-        <v>0.5143663355149719</v>
+        <v>0.4739573652568669</v>
       </c>
       <c r="F11">
-        <v>0.5246908926905429</v>
+        <v>0.4760972574996225</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02843597334849807</v>
+        <v>-0.05889918563118277</v>
       </c>
       <c r="C2">
-        <v>0.5120978290967556</v>
+        <v>0.5375210360923134</v>
       </c>
       <c r="D2">
-        <v>0.6508982077648369</v>
+        <v>0.6208141610631079</v>
       </c>
       <c r="E2">
-        <v>0.8067826273320694</v>
+        <v>0.7879176105806418</v>
       </c>
       <c r="F2">
-        <v>0.8283753329562445</v>
+        <v>0.8084920911945981</v>
       </c>
       <c r="G2">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05889918563118277</v>
+        <v>0.07850679787661623</v>
       </c>
       <c r="C3">
-        <v>0.5375210360923134</v>
+        <v>0.4200275287208594</v>
       </c>
       <c r="D3">
-        <v>0.6208141610631079</v>
+        <v>0.2679724280602394</v>
       </c>
       <c r="E3">
-        <v>0.7879176105806418</v>
+        <v>0.5176605336127522</v>
       </c>
       <c r="F3">
-        <v>0.8084920911945981</v>
+        <v>0.5274203069366139</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.07850679787661623</v>
+        <v>0.09045959314081749</v>
       </c>
       <c r="C4">
-        <v>0.4200275287208594</v>
+        <v>0.4284335755769144</v>
       </c>
       <c r="D4">
-        <v>0.2679724280602394</v>
+        <v>0.3144213805930146</v>
       </c>
       <c r="E4">
-        <v>0.5176605336127522</v>
+        <v>0.560732895943349</v>
       </c>
       <c r="F4">
-        <v>0.5274203069366139</v>
+        <v>0.571536821889252</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.09045959314081749</v>
+        <v>0.1328729943200521</v>
       </c>
       <c r="C5">
-        <v>0.4284335755769144</v>
+        <v>0.4043956606847117</v>
       </c>
       <c r="D5">
-        <v>0.3144213805930146</v>
+        <v>0.2696880151153669</v>
       </c>
       <c r="E5">
-        <v>0.560732895943349</v>
+        <v>0.5193149479028761</v>
       </c>
       <c r="F5">
-        <v>0.571536821889252</v>
+        <v>0.5196490393550559</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1328729943200521</v>
+        <v>0.1892581571789815</v>
       </c>
       <c r="C6">
-        <v>0.4043956606847117</v>
+        <v>0.3380498083070491</v>
       </c>
       <c r="D6">
-        <v>0.2696880151153669</v>
+        <v>0.2385894900054021</v>
       </c>
       <c r="E6">
-        <v>0.5193149479028761</v>
+        <v>0.4884562314121933</v>
       </c>
       <c r="F6">
-        <v>0.5196490393550559</v>
+        <v>0.4672992583619074</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1892581571789815</v>
+        <v>0.2086948502624945</v>
       </c>
       <c r="C7">
-        <v>0.3380498083070491</v>
+        <v>0.3022036763864308</v>
       </c>
       <c r="D7">
-        <v>0.2385894900054021</v>
+        <v>0.1923865449580635</v>
       </c>
       <c r="E7">
-        <v>0.4884562314121933</v>
+        <v>0.4386189062934513</v>
       </c>
       <c r="F7">
-        <v>0.4672992583619074</v>
+        <v>0.4015417223668171</v>
       </c>
       <c r="G7">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2086948502624945</v>
+        <v>0.2394124698171911</v>
       </c>
       <c r="C8">
-        <v>0.3022036763864308</v>
+        <v>0.2672986829739259</v>
       </c>
       <c r="D8">
-        <v>0.1923865449580635</v>
+        <v>0.1375220876090255</v>
       </c>
       <c r="E8">
-        <v>0.4386189062934513</v>
+        <v>0.3708397060847524</v>
       </c>
       <c r="F8">
-        <v>0.4015417223668171</v>
+        <v>0.2957955502247975</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2394124698171911</v>
+        <v>0.195371401722039</v>
       </c>
       <c r="C9">
-        <v>0.2672986829739259</v>
+        <v>0.2718328173942094</v>
       </c>
       <c r="D9">
-        <v>0.1375220876090255</v>
+        <v>0.1201690274152207</v>
       </c>
       <c r="E9">
-        <v>0.3708397060847524</v>
+        <v>0.3466540457216975</v>
       </c>
       <c r="F9">
-        <v>0.2957955502247975</v>
+        <v>0.3003313954364828</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.195371401722039</v>
+        <v>0.1436448583919225</v>
       </c>
       <c r="C10">
-        <v>0.2718328173942094</v>
+        <v>0.2781300272604909</v>
       </c>
       <c r="D10">
-        <v>0.1201690274152207</v>
+        <v>0.2246355840812312</v>
       </c>
       <c r="E10">
-        <v>0.3466540457216975</v>
+        <v>0.4739573652568669</v>
       </c>
       <c r="F10">
-        <v>0.3003313954364828</v>
+        <v>0.4760972574996225</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1436448583919225</v>
+        <v>0.1250455391607497</v>
       </c>
       <c r="C11">
-        <v>0.2781300272604909</v>
+        <v>0.2940678690837308</v>
       </c>
       <c r="D11">
-        <v>0.2246355840812312</v>
+        <v>0.2019405311378496</v>
       </c>
       <c r="E11">
-        <v>0.4739573652568669</v>
+        <v>0.449377937974095</v>
       </c>
       <c r="F11">
-        <v>0.4760972574996225</v>
+        <v>0.4578123658313282</v>
       </c>
       <c r="G11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_latest_since_2021.xlsx
+++ b/1_Result_Tables/4_naive_QoQ_matched_to_ifoCAST_since_2021/AVERAGE_10_9_matched_error_tables_latest_since_2021.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.05889918563118277</v>
+        <v>-0.02843597334849807</v>
       </c>
       <c r="C2">
-        <v>0.5375210360923134</v>
+        <v>0.5120978290967556</v>
       </c>
       <c r="D2">
-        <v>0.6208141610631079</v>
+        <v>0.6508982077648369</v>
       </c>
       <c r="E2">
-        <v>0.7879176105806418</v>
+        <v>0.8067826273320694</v>
       </c>
       <c r="F2">
-        <v>0.8084920911945981</v>
+        <v>0.8283753329562445</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.07850679787661623</v>
+        <v>-0.05889918563118277</v>
       </c>
       <c r="C3">
-        <v>0.4200275287208594</v>
+        <v>0.5375210360923134</v>
       </c>
       <c r="D3">
-        <v>0.2679724280602394</v>
+        <v>0.6208141610631079</v>
       </c>
       <c r="E3">
-        <v>0.5176605336127522</v>
+        <v>0.7879176105806418</v>
       </c>
       <c r="F3">
-        <v>0.5274203069366139</v>
+        <v>0.8084920911945981</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.09045959314081749</v>
+        <v>0.07850679787661623</v>
       </c>
       <c r="C4">
-        <v>0.4284335755769144</v>
+        <v>0.4200275287208594</v>
       </c>
       <c r="D4">
-        <v>0.3144213805930146</v>
+        <v>0.2679724280602394</v>
       </c>
       <c r="E4">
-        <v>0.560732895943349</v>
+        <v>0.5176605336127522</v>
       </c>
       <c r="F4">
-        <v>0.571536821889252</v>
+        <v>0.5274203069366139</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1328729943200521</v>
+        <v>0.09045959314081749</v>
       </c>
       <c r="C5">
-        <v>0.4043956606847117</v>
+        <v>0.4284335755769144</v>
       </c>
       <c r="D5">
-        <v>0.2696880151153669</v>
+        <v>0.3144213805930146</v>
       </c>
       <c r="E5">
-        <v>0.5193149479028761</v>
+        <v>0.560732895943349</v>
       </c>
       <c r="F5">
-        <v>0.5196490393550559</v>
+        <v>0.571536821889252</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1892581571789815</v>
+        <v>0.1328729943200521</v>
       </c>
       <c r="C6">
-        <v>0.3380498083070491</v>
+        <v>0.4043956606847117</v>
       </c>
       <c r="D6">
-        <v>0.2385894900054021</v>
+        <v>0.2696880151153669</v>
       </c>
       <c r="E6">
-        <v>0.4884562314121933</v>
+        <v>0.5193149479028761</v>
       </c>
       <c r="F6">
-        <v>0.4672992583619074</v>
+        <v>0.5196490393550559</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2086948502624945</v>
+        <v>0.1892581571789815</v>
       </c>
       <c r="C7">
-        <v>0.3022036763864308</v>
+        <v>0.3380498083070491</v>
       </c>
       <c r="D7">
-        <v>0.1923865449580635</v>
+        <v>0.2385894900054021</v>
       </c>
       <c r="E7">
-        <v>0.4386189062934513</v>
+        <v>0.4884562314121933</v>
       </c>
       <c r="F7">
-        <v>0.4015417223668171</v>
+        <v>0.4672992583619074</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2394124698171911</v>
+        <v>0.2086948502624945</v>
       </c>
       <c r="C8">
-        <v>0.2672986829739259</v>
+        <v>0.3022036763864308</v>
       </c>
       <c r="D8">
-        <v>0.1375220876090255</v>
+        <v>0.1923865449580635</v>
       </c>
       <c r="E8">
-        <v>0.3708397060847524</v>
+        <v>0.4386189062934513</v>
       </c>
       <c r="F8">
-        <v>0.2957955502247975</v>
+        <v>0.4015417223668171</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.195371401722039</v>
+        <v>0.2394124698171911</v>
       </c>
       <c r="C9">
-        <v>0.2718328173942094</v>
+        <v>0.2672986829739259</v>
       </c>
       <c r="D9">
-        <v>0.1201690274152207</v>
+        <v>0.1375220876090255</v>
       </c>
       <c r="E9">
-        <v>0.3466540457216975</v>
+        <v>0.3708397060847524</v>
       </c>
       <c r="F9">
-        <v>0.3003313954364828</v>
+        <v>0.2957955502247975</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1436448583919225</v>
+        <v>0.195371401722039</v>
       </c>
       <c r="C10">
-        <v>0.2781300272604909</v>
+        <v>0.2718328173942094</v>
       </c>
       <c r="D10">
-        <v>0.2246355840812312</v>
+        <v>0.1201690274152207</v>
       </c>
       <c r="E10">
-        <v>0.4739573652568669</v>
+        <v>0.3466540457216975</v>
       </c>
       <c r="F10">
-        <v>0.4760972574996225</v>
+        <v>0.3003313954364828</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1250455391607497</v>
+        <v>0.1436448583919225</v>
       </c>
       <c r="C11">
-        <v>0.2940678690837308</v>
+        <v>0.2781300272604909</v>
       </c>
       <c r="D11">
-        <v>0.2019405311378496</v>
+        <v>0.2246355840812312</v>
       </c>
       <c r="E11">
-        <v>0.449377937974095</v>
+        <v>0.4739573652568669</v>
       </c>
       <c r="F11">
-        <v>0.4578123658313282</v>
+        <v>0.4760972574996225</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
